--- a/NEW HR/VILLANUEVA, ISMAEL.xlsx
+++ b/NEW HR/VILLANUEVA, ISMAEL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -663,16 +663,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -681,11 +684,8 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -890,27 +890,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -1131,27 +1131,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -2620,25 +2620,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K98" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K98" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2650,25 +2650,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K94" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K94" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2999,7 +2999,7 @@
   </sheetPr>
   <dimension ref="A2:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A62" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
@@ -3024,16 +3024,16 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
@@ -3045,29 +3045,29 @@
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="60"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
@@ -3114,18 +3114,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4972,10 +4972,10 @@
   </sheetPr>
   <dimension ref="A2:K94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomLeft" activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4997,16 +4997,16 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
@@ -5018,29 +5018,29 @@
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="60"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
@@ -5087,18 +5087,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5155,7 +5155,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -6577,8 +6577,12 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="21"/>
+      <c r="A74" s="42">
+        <v>45078</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="C74" s="14"/>
       <c r="D74" s="41"/>
       <c r="E74" s="10"/>
@@ -6587,14 +6591,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H74" s="41"/>
+      <c r="H74" s="41">
+        <v>1</v>
+      </c>
       <c r="I74" s="10"/>
       <c r="J74" s="12"/>
-      <c r="K74" s="21"/>
+      <c r="K74" s="51">
+        <v>45079</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
-      <c r="B75" s="21"/>
+      <c r="B75" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="C75" s="14"/>
       <c r="D75" s="41"/>
       <c r="E75" s="10"/>
@@ -6603,10 +6613,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H75" s="41"/>
+      <c r="H75" s="41">
+        <v>1</v>
+      </c>
       <c r="I75" s="10"/>
       <c r="J75" s="12"/>
-      <c r="K75" s="21"/>
+      <c r="K75" s="51">
+        <v>45068</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="42"/>

--- a/NEW HR/VILLANUEVA, ISMAEL.xlsx
+++ b/NEW HR/VILLANUEVA, ISMAEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3000,9 +3000,9 @@
   <dimension ref="A2:K98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A62" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82:C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3172,7 +3172,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>60</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3182,7 +3182,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>76.5</v>
+        <v>84</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4590,15 +4590,19 @@
       <c r="K77" s="21"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
+      <c r="A78" s="42">
+        <v>44986</v>
+      </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="41"/>
       <c r="E78" s="10"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="41"/>
       <c r="I78" s="10"/>
@@ -4606,15 +4610,19 @@
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
+      <c r="A79" s="42">
+        <v>45017</v>
+      </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="41"/>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="10"/>
@@ -4622,15 +4630,19 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+      <c r="A80" s="42">
+        <v>45047</v>
+      </c>
       <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="41"/>
       <c r="E80" s="10"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="41"/>
       <c r="I80" s="10"/>
@@ -4638,15 +4650,19 @@
       <c r="K80" s="21"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
+      <c r="A81" s="42">
+        <v>45078</v>
+      </c>
       <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="41"/>
       <c r="E81" s="10"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="41"/>
       <c r="I81" s="10"/>
@@ -4654,15 +4670,19 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
+      <c r="A82" s="42">
+        <v>45108</v>
+      </c>
       <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="41"/>
       <c r="E82" s="10"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="41"/>
       <c r="I82" s="10"/>
@@ -4670,15 +4690,19 @@
       <c r="K82" s="21"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="42">
+        <v>45139</v>
+      </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="41"/>
       <c r="E83" s="10"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="41"/>
       <c r="I83" s="10"/>
@@ -4975,7 +4999,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K76" sqref="K76"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5155,7 +5179,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -6623,8 +6647,12 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="B76" s="21"/>
+      <c r="A76" s="42">
+        <v>45153</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="C76" s="14"/>
       <c r="D76" s="41"/>
       <c r="E76" s="10"/>
@@ -6633,14 +6661,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H76" s="41"/>
+      <c r="H76" s="41">
+        <v>1</v>
+      </c>
       <c r="I76" s="10"/>
       <c r="J76" s="12"/>
-      <c r="K76" s="21"/>
+      <c r="K76" s="51">
+        <v>45147</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="B77" s="21"/>
+      <c r="A77" s="42">
+        <v>45170</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="C77" s="14"/>
       <c r="D77" s="41"/>
       <c r="E77" s="10"/>
@@ -6649,10 +6685,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H77" s="41"/>
+      <c r="H77" s="41">
+        <v>1</v>
+      </c>
       <c r="I77" s="10"/>
       <c r="J77" s="12"/>
-      <c r="K77" s="21"/>
+      <c r="K77" s="51">
+        <v>45180</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="42"/>
